--- a/pred_ohlcv/54_21/2020-01-23 ORBS ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-23 ORBS ohlcv.xlsx
@@ -470,7 +470,7 @@
         <v>5826587.07605207</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -522,7 +522,7 @@
         <v>5823699.57265207</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -626,7 +626,7 @@
         <v>5406116.87715207</v>
       </c>
       <c r="H9">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>5406116.87715207</v>
       </c>
       <c r="H10">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -2992,7 +2992,7 @@
         <v>3986923.172714451</v>
       </c>
       <c r="H100">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3018,7 +3018,7 @@
         <v>4200656.096714451</v>
       </c>
       <c r="H101">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3044,7 +3044,7 @@
         <v>4200656.096714451</v>
       </c>
       <c r="H102">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3070,7 +3070,7 @@
         <v>4200586.896714451</v>
       </c>
       <c r="H103">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3096,7 +3096,7 @@
         <v>4050621.573314451</v>
       </c>
       <c r="H104">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3122,7 +3122,7 @@
         <v>4052295.522314451</v>
       </c>
       <c r="H105">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3148,7 +3148,7 @@
         <v>4052295.522314451</v>
       </c>
       <c r="H106">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3252,7 +3252,7 @@
         <v>4003945.52711445</v>
       </c>
       <c r="H110">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3304,7 +3304,7 @@
         <v>4008571.47621445</v>
       </c>
       <c r="H112">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3330,7 +3330,7 @@
         <v>4008571.47621445</v>
       </c>
       <c r="H113">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3356,7 +3356,7 @@
         <v>4008571.47621445</v>
       </c>
       <c r="H114">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3382,7 +3382,7 @@
         <v>4042101.47621445</v>
       </c>
       <c r="H115">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3408,7 +3408,7 @@
         <v>4042032.47621445</v>
       </c>
       <c r="H116">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -3434,7 +3434,7 @@
         <v>4042032.47621445</v>
       </c>
       <c r="H117">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3460,7 +3460,7 @@
         <v>4042032.47621445</v>
       </c>
       <c r="H118">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -3486,7 +3486,7 @@
         <v>4110093.65101445</v>
       </c>
       <c r="H119">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -3564,7 +3564,7 @@
         <v>3999180.392414451</v>
       </c>
       <c r="H122">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -3642,7 +3642,7 @@
         <v>3689113.392414451</v>
       </c>
       <c r="H125">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -3668,7 +3668,7 @@
         <v>3689113.392414451</v>
       </c>
       <c r="H126">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -3694,7 +3694,7 @@
         <v>3689113.392414451</v>
       </c>
       <c r="H127">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="128" spans="1:8">

--- a/pred_ohlcv/54_21/2020-01-23 ORBS ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-23 ORBS ohlcv.xlsx
@@ -548,7 +548,7 @@
         <v>5790122.49245207</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>5839501.76545207</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>5790056.49245207</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>5406116.87715207</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>5406116.87715207</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -756,7 +756,7 @@
         <v>5381131.151752071</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -782,7 +782,7 @@
         <v>5382353.779252071</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -808,7 +808,7 @@
         <v>5262805.842552071</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -2966,7 +2966,7 @@
         <v>3986992.472714451</v>
       </c>
       <c r="H99">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -2992,7 +2992,7 @@
         <v>3986923.172714451</v>
       </c>
       <c r="H100">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3018,7 +3018,7 @@
         <v>4200656.096714451</v>
       </c>
       <c r="H101">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3044,7 +3044,7 @@
         <v>4200656.096714451</v>
       </c>
       <c r="H102">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3070,7 +3070,7 @@
         <v>4200586.896714451</v>
       </c>
       <c r="H103">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3096,7 +3096,7 @@
         <v>4050621.573314451</v>
       </c>
       <c r="H104">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3122,7 +3122,7 @@
         <v>4052295.522314451</v>
       </c>
       <c r="H105">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3148,7 +3148,7 @@
         <v>4052295.522314451</v>
       </c>
       <c r="H106">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3174,7 +3174,7 @@
         <v>4017487.837314451</v>
       </c>
       <c r="H107">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3200,7 +3200,7 @@
         <v>4001892.448314451</v>
       </c>
       <c r="H108">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3226,7 +3226,7 @@
         <v>4004014.627114451</v>
       </c>
       <c r="H109">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3252,7 +3252,7 @@
         <v>4003945.52711445</v>
       </c>
       <c r="H110">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3304,7 +3304,7 @@
         <v>4008571.47621445</v>
       </c>
       <c r="H112">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3330,7 +3330,7 @@
         <v>4008571.47621445</v>
       </c>
       <c r="H113">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3356,7 +3356,7 @@
         <v>4008571.47621445</v>
       </c>
       <c r="H114">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3382,7 +3382,7 @@
         <v>4042101.47621445</v>
       </c>
       <c r="H115">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3408,7 +3408,7 @@
         <v>4042032.47621445</v>
       </c>
       <c r="H116">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -3434,7 +3434,7 @@
         <v>4042032.47621445</v>
       </c>
       <c r="H117">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3460,7 +3460,7 @@
         <v>4042032.47621445</v>
       </c>
       <c r="H118">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -3486,7 +3486,7 @@
         <v>4110093.65101445</v>
       </c>
       <c r="H119">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -3564,7 +3564,7 @@
         <v>3999180.392414451</v>
       </c>
       <c r="H122">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -3590,7 +3590,7 @@
         <v>3999180.392414451</v>
       </c>
       <c r="H123">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -3616,7 +3616,7 @@
         <v>3989116.392414451</v>
       </c>
       <c r="H124">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -3642,7 +3642,7 @@
         <v>3689113.392414451</v>
       </c>
       <c r="H125">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -3668,7 +3668,7 @@
         <v>3689113.392414451</v>
       </c>
       <c r="H126">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -3694,7 +3694,7 @@
         <v>3689113.392414451</v>
       </c>
       <c r="H127">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="128" spans="1:8">
